--- a/sp-500-eps-est.xlsx
+++ b/sp-500-eps-est.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EPSDIV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rainy\Documents\GitHub\Economics\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF91E4B-BA8E-4470-A2AD-4048D9010410}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESTIMATES&amp;PEs" sheetId="1" r:id="rId1"/>
@@ -62,20 +63,12 @@
     <definedName name="SPWS_WSID" localSheetId="2" hidden="1">"3DBDD925-7AEB-455E-A770-CEEF17D6751A"</definedName>
     <definedName name="SPWS_WSID" localSheetId="1" hidden="1">"A9C143DE-FC40-44CA-9F37-A4FFBE721530"</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="721">
   <si>
     <t>QUARTER</t>
   </si>
@@ -1220,9 +1213,6 @@
     <t>Q2,'18 higher sharers than Q2,'17</t>
   </si>
   <si>
-    <t>3/31/2018</t>
-  </si>
-  <si>
     <t xml:space="preserve">Of the 499 issues (505 in the index) with full operating comparative data </t>
   </si>
   <si>
@@ -1274,9 +1264,6 @@
     <t>Q3,'18 higher sharers than Q3,'17</t>
   </si>
   <si>
-    <t xml:space="preserve">6/30/2018 </t>
-  </si>
-  <si>
     <t>COMMUNICATION SERVICES</t>
   </si>
   <si>
@@ -1299,9 +1286,6 @@
   </si>
   <si>
     <t>382 beat, 75 missed, and 40 met their estimates; 302 of 494 (61.1%) beat on sales</t>
-  </si>
-  <si>
-    <t>9/30/2018</t>
   </si>
   <si>
     <t>PRICE 12/18</t>
@@ -1373,9 +1357,6 @@
     <t>2018  EPS</t>
   </si>
   <si>
-    <t xml:space="preserve">12/31/2018 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Q4 2018 </t>
   </si>
   <si>
@@ -1404,9 +1385,6 @@
   </si>
   <si>
     <t>Q2,'19 higher sharers than Q2,'18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3/31/2019 </t>
   </si>
   <si>
     <t>2019 Q1</t>
@@ -1446,9 +1424,6 @@
   </si>
   <si>
     <t xml:space="preserve">Issues with diluted share counts for Q3 2019 over Q3 2018 EPS </t>
-  </si>
-  <si>
-    <t>6/30/2019</t>
   </si>
   <si>
     <t>2019 Q2</t>
@@ -1491,9 +1466,6 @@
   </si>
   <si>
     <t>2019 Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9/30/2019  </t>
   </si>
   <si>
     <t>Q3</t>
@@ -1581,9 +1553,6 @@
   </si>
   <si>
     <t>2021E</t>
-  </si>
-  <si>
-    <t>12/31/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Issues with diluted share counts for Q1 2020 over Q1 2019 EPS </t>
@@ -1791,9 +1760,6 @@
   </si>
   <si>
     <t>Q4,'19 shares at least 4% lower than Q1,'19</t>
-  </si>
-  <si>
-    <t>3/31/2020</t>
   </si>
   <si>
     <t>(P/E on Jun,'20 price)</t>
@@ -2270,7 +2236,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="15">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -4496,437 +4462,437 @@
     </xf>
   </cellXfs>
   <cellStyles count="431">
-    <cellStyle name="_x000a_bidires=100_x000d_" xfId="1"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 2" xfId="103"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 2 2" xfId="157"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 2 2 2" xfId="228"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 2 3" xfId="179"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 2 4" xfId="248"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 3" xfId="156"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 3 2" xfId="227"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 4" xfId="178"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 5" xfId="247"/>
-    <cellStyle name="_x000a_bidires=100_x000d_ 6" xfId="102"/>
+    <cellStyle name="_x000a_bidires=100_x000d_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 2 2" xfId="157" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 2 2 2" xfId="228" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 2 3" xfId="179" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 2 4" xfId="248" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 3" xfId="156" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 3 2" xfId="227" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 4" xfId="178" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 5" xfId="247" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="_x000a_bidires=100_x000d_ 6" xfId="102" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 2" xfId="78"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="232"/>
-    <cellStyle name="20% - Accent1 2 2 2" xfId="382"/>
-    <cellStyle name="20% - Accent1 2 3" xfId="311"/>
-    <cellStyle name="20% - Accent1 2 3 2" xfId="412"/>
-    <cellStyle name="20% - Accent1 2 4" xfId="163"/>
-    <cellStyle name="20% - Accent1 2 5" xfId="354"/>
-    <cellStyle name="20% - Accent1 3" xfId="202"/>
-    <cellStyle name="20% - Accent1 3 2" xfId="368"/>
-    <cellStyle name="20% - Accent1 4" xfId="249"/>
-    <cellStyle name="20% - Accent1 4 2" xfId="396"/>
-    <cellStyle name="20% - Accent1 5" xfId="131"/>
-    <cellStyle name="20% - Accent1 5 2" xfId="340"/>
+    <cellStyle name="20% - Accent1 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - Accent1 2 2 2" xfId="382" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - Accent1 2 3" xfId="311" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - Accent1 2 3 2" xfId="412" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - Accent1 2 4" xfId="163" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - Accent1 2 5" xfId="354" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - Accent1 3" xfId="202" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - Accent1 3 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - Accent1 4" xfId="249" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - Accent1 4 2" xfId="396" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - Accent1 5" xfId="131" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - Accent1 5 2" xfId="340" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 2" xfId="82"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="234"/>
-    <cellStyle name="20% - Accent2 2 2 2" xfId="384"/>
-    <cellStyle name="20% - Accent2 2 3" xfId="315"/>
-    <cellStyle name="20% - Accent2 2 3 2" xfId="414"/>
-    <cellStyle name="20% - Accent2 2 4" xfId="165"/>
-    <cellStyle name="20% - Accent2 2 5" xfId="356"/>
-    <cellStyle name="20% - Accent2 3" xfId="206"/>
-    <cellStyle name="20% - Accent2 3 2" xfId="370"/>
-    <cellStyle name="20% - Accent2 4" xfId="250"/>
-    <cellStyle name="20% - Accent2 4 2" xfId="397"/>
-    <cellStyle name="20% - Accent2 5" xfId="135"/>
-    <cellStyle name="20% - Accent2 5 2" xfId="342"/>
+    <cellStyle name="20% - Accent2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="234" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="20% - Accent2 2 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="20% - Accent2 2 3" xfId="315" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent2 2 3 2" xfId="414" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="20% - Accent2 2 4" xfId="165" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="20% - Accent2 2 5" xfId="356" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="20% - Accent2 3" xfId="206" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="20% - Accent2 3 2" xfId="370" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="20% - Accent2 4" xfId="250" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="20% - Accent2 4 2" xfId="397" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="20% - Accent2 5" xfId="135" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="20% - Accent2 5 2" xfId="342" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 2" xfId="86"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="236"/>
-    <cellStyle name="20% - Accent3 2 2 2" xfId="386"/>
-    <cellStyle name="20% - Accent3 2 3" xfId="319"/>
-    <cellStyle name="20% - Accent3 2 3 2" xfId="416"/>
-    <cellStyle name="20% - Accent3 2 4" xfId="167"/>
-    <cellStyle name="20% - Accent3 2 5" xfId="358"/>
-    <cellStyle name="20% - Accent3 3" xfId="210"/>
-    <cellStyle name="20% - Accent3 3 2" xfId="372"/>
-    <cellStyle name="20% - Accent3 4" xfId="251"/>
-    <cellStyle name="20% - Accent3 4 2" xfId="398"/>
-    <cellStyle name="20% - Accent3 5" xfId="139"/>
-    <cellStyle name="20% - Accent3 5 2" xfId="344"/>
+    <cellStyle name="20% - Accent3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="20% - Accent3 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="20% - Accent3 2 3" xfId="319" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="20% - Accent3 2 3 2" xfId="416" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="20% - Accent3 2 4" xfId="167" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="20% - Accent3 2 5" xfId="358" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="20% - Accent3 3" xfId="210" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="20% - Accent3 3 2" xfId="372" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="20% - Accent3 4" xfId="251" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - Accent3 4 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="20% - Accent3 5" xfId="139" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Accent3 5 2" xfId="344" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 2" xfId="90"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="238"/>
-    <cellStyle name="20% - Accent4 2 2 2" xfId="388"/>
-    <cellStyle name="20% - Accent4 2 3" xfId="323"/>
-    <cellStyle name="20% - Accent4 2 3 2" xfId="418"/>
-    <cellStyle name="20% - Accent4 2 4" xfId="169"/>
-    <cellStyle name="20% - Accent4 2 5" xfId="360"/>
-    <cellStyle name="20% - Accent4 3" xfId="214"/>
-    <cellStyle name="20% - Accent4 3 2" xfId="374"/>
-    <cellStyle name="20% - Accent4 4" xfId="252"/>
-    <cellStyle name="20% - Accent4 4 2" xfId="399"/>
-    <cellStyle name="20% - Accent4 5" xfId="143"/>
-    <cellStyle name="20% - Accent4 5 2" xfId="346"/>
+    <cellStyle name="20% - Accent4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="238" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="20% - Accent4 2 2 2" xfId="388" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="20% - Accent4 2 3" xfId="323" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="20% - Accent4 2 3 2" xfId="418" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="20% - Accent4 2 4" xfId="169" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="20% - Accent4 2 5" xfId="360" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="20% - Accent4 3" xfId="214" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="20% - Accent4 3 2" xfId="374" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="20% - Accent4 4" xfId="252" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="20% - Accent4 4 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Accent4 5" xfId="143" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="20% - Accent4 5 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
     <cellStyle name="20% - Accent5" xfId="6" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 2" xfId="94"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="240"/>
-    <cellStyle name="20% - Accent5 2 2 2" xfId="390"/>
-    <cellStyle name="20% - Accent5 2 3" xfId="327"/>
-    <cellStyle name="20% - Accent5 2 3 2" xfId="420"/>
-    <cellStyle name="20% - Accent5 2 4" xfId="171"/>
-    <cellStyle name="20% - Accent5 2 5" xfId="362"/>
-    <cellStyle name="20% - Accent5 3" xfId="218"/>
-    <cellStyle name="20% - Accent5 3 2" xfId="376"/>
-    <cellStyle name="20% - Accent5 4" xfId="253"/>
-    <cellStyle name="20% - Accent5 4 2" xfId="400"/>
-    <cellStyle name="20% - Accent5 5" xfId="147"/>
-    <cellStyle name="20% - Accent5 5 2" xfId="348"/>
+    <cellStyle name="20% - Accent5 2" xfId="94" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="20% - Accent5 2 2 2" xfId="390" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="20% - Accent5 2 3" xfId="327" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="20% - Accent5 2 3 2" xfId="420" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="20% - Accent5 2 4" xfId="171" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="20% - Accent5 2 5" xfId="362" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="20% - Accent5 3" xfId="218" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="20% - Accent5 3 2" xfId="376" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="20% - Accent5 4" xfId="253" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - Accent5 4 2" xfId="400" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="20% - Accent5 5" xfId="147" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="20% - Accent5 5 2" xfId="348" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
     <cellStyle name="20% - Accent6" xfId="7" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 2" xfId="98"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="242"/>
-    <cellStyle name="20% - Accent6 2 2 2" xfId="392"/>
-    <cellStyle name="20% - Accent6 2 3" xfId="331"/>
-    <cellStyle name="20% - Accent6 2 3 2" xfId="422"/>
-    <cellStyle name="20% - Accent6 2 4" xfId="173"/>
-    <cellStyle name="20% - Accent6 2 5" xfId="364"/>
-    <cellStyle name="20% - Accent6 3" xfId="222"/>
-    <cellStyle name="20% - Accent6 3 2" xfId="378"/>
-    <cellStyle name="20% - Accent6 4" xfId="254"/>
-    <cellStyle name="20% - Accent6 4 2" xfId="401"/>
-    <cellStyle name="20% - Accent6 5" xfId="151"/>
-    <cellStyle name="20% - Accent6 5 2" xfId="350"/>
+    <cellStyle name="20% - Accent6 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="20% - Accent6 2 2 2" xfId="392" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="20% - Accent6 2 3" xfId="331" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="20% - Accent6 2 3 2" xfId="422" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="20% - Accent6 2 4" xfId="173" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="20% - Accent6 2 5" xfId="364" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="20% - Accent6 3" xfId="222" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="20% - Accent6 3 2" xfId="378" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="20% - Accent6 4" xfId="254" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="20% - Accent6 4 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="20% - Accent6 5" xfId="151" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="20% - Accent6 5 2" xfId="350" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
     <cellStyle name="40% - Accent1" xfId="8" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 2" xfId="79"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="233"/>
-    <cellStyle name="40% - Accent1 2 2 2" xfId="383"/>
-    <cellStyle name="40% - Accent1 2 3" xfId="312"/>
-    <cellStyle name="40% - Accent1 2 3 2" xfId="413"/>
-    <cellStyle name="40% - Accent1 2 4" xfId="164"/>
-    <cellStyle name="40% - Accent1 2 5" xfId="355"/>
-    <cellStyle name="40% - Accent1 3" xfId="203"/>
-    <cellStyle name="40% - Accent1 3 2" xfId="369"/>
-    <cellStyle name="40% - Accent1 4" xfId="255"/>
-    <cellStyle name="40% - Accent1 4 2" xfId="402"/>
-    <cellStyle name="40% - Accent1 5" xfId="132"/>
-    <cellStyle name="40% - Accent1 5 2" xfId="341"/>
+    <cellStyle name="40% - Accent1 2" xfId="79" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="233" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="40% - Accent1 2 2 2" xfId="383" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="40% - Accent1 2 3" xfId="312" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="40% - Accent1 2 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="40% - Accent1 2 4" xfId="164" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="40% - Accent1 2 5" xfId="355" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="40% - Accent1 3" xfId="203" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="40% - Accent1 3 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="40% - Accent1 4" xfId="255" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="40% - Accent1 4 2" xfId="402" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="40% - Accent1 5" xfId="132" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="40% - Accent1 5 2" xfId="341" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
     <cellStyle name="40% - Accent2" xfId="9" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 2" xfId="83"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="235"/>
-    <cellStyle name="40% - Accent2 2 2 2" xfId="385"/>
-    <cellStyle name="40% - Accent2 2 3" xfId="316"/>
-    <cellStyle name="40% - Accent2 2 3 2" xfId="415"/>
-    <cellStyle name="40% - Accent2 2 4" xfId="166"/>
-    <cellStyle name="40% - Accent2 2 5" xfId="357"/>
-    <cellStyle name="40% - Accent2 3" xfId="207"/>
-    <cellStyle name="40% - Accent2 3 2" xfId="371"/>
-    <cellStyle name="40% - Accent2 4" xfId="256"/>
-    <cellStyle name="40% - Accent2 4 2" xfId="403"/>
-    <cellStyle name="40% - Accent2 5" xfId="136"/>
-    <cellStyle name="40% - Accent2 5 2" xfId="343"/>
+    <cellStyle name="40% - Accent2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="235" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="40% - Accent2 2 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="40% - Accent2 2 3" xfId="316" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="40% - Accent2 2 3 2" xfId="415" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="40% - Accent2 2 4" xfId="166" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="40% - Accent2 2 5" xfId="357" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="40% - Accent2 3" xfId="207" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="40% - Accent2 3 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="40% - Accent2 4" xfId="256" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="40% - Accent2 4 2" xfId="403" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="40% - Accent2 5" xfId="136" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="40% - Accent2 5 2" xfId="343" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
     <cellStyle name="40% - Accent3" xfId="10" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 2" xfId="87"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="237"/>
-    <cellStyle name="40% - Accent3 2 2 2" xfId="387"/>
-    <cellStyle name="40% - Accent3 2 3" xfId="320"/>
-    <cellStyle name="40% - Accent3 2 3 2" xfId="417"/>
-    <cellStyle name="40% - Accent3 2 4" xfId="168"/>
-    <cellStyle name="40% - Accent3 2 5" xfId="359"/>
-    <cellStyle name="40% - Accent3 3" xfId="211"/>
-    <cellStyle name="40% - Accent3 3 2" xfId="373"/>
-    <cellStyle name="40% - Accent3 4" xfId="257"/>
-    <cellStyle name="40% - Accent3 4 2" xfId="404"/>
-    <cellStyle name="40% - Accent3 5" xfId="140"/>
-    <cellStyle name="40% - Accent3 5 2" xfId="345"/>
+    <cellStyle name="40% - Accent3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="40% - Accent3 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="40% - Accent3 2 3" xfId="320" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="40% - Accent3 2 3 2" xfId="417" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="40% - Accent3 2 4" xfId="168" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="40% - Accent3 2 5" xfId="359" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="40% - Accent3 3" xfId="211" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="40% - Accent3 3 2" xfId="373" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="40% - Accent3 4" xfId="257" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="40% - Accent3 4 2" xfId="404" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="40% - Accent3 5" xfId="140" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="40% - Accent3 5 2" xfId="345" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
     <cellStyle name="40% - Accent4" xfId="11" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 2" xfId="91"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="239"/>
-    <cellStyle name="40% - Accent4 2 2 2" xfId="389"/>
-    <cellStyle name="40% - Accent4 2 3" xfId="324"/>
-    <cellStyle name="40% - Accent4 2 3 2" xfId="419"/>
-    <cellStyle name="40% - Accent4 2 4" xfId="170"/>
-    <cellStyle name="40% - Accent4 2 5" xfId="361"/>
-    <cellStyle name="40% - Accent4 3" xfId="215"/>
-    <cellStyle name="40% - Accent4 3 2" xfId="375"/>
-    <cellStyle name="40% - Accent4 4" xfId="258"/>
-    <cellStyle name="40% - Accent4 4 2" xfId="405"/>
-    <cellStyle name="40% - Accent4 5" xfId="144"/>
-    <cellStyle name="40% - Accent4 5 2" xfId="347"/>
+    <cellStyle name="40% - Accent4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="239" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="40% - Accent4 2 2 2" xfId="389" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="40% - Accent4 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="40% - Accent4 2 3 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="40% - Accent4 2 4" xfId="170" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="40% - Accent4 2 5" xfId="361" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="40% - Accent4 3" xfId="215" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="40% - Accent4 3 2" xfId="375" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="40% - Accent4 4" xfId="258" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="40% - Accent4 4 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="40% - Accent4 5" xfId="144" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="40% - Accent4 5 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
     <cellStyle name="40% - Accent5" xfId="12" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 2" xfId="95"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="241"/>
-    <cellStyle name="40% - Accent5 2 2 2" xfId="391"/>
-    <cellStyle name="40% - Accent5 2 3" xfId="328"/>
-    <cellStyle name="40% - Accent5 2 3 2" xfId="421"/>
-    <cellStyle name="40% - Accent5 2 4" xfId="172"/>
-    <cellStyle name="40% - Accent5 2 5" xfId="363"/>
-    <cellStyle name="40% - Accent5 3" xfId="219"/>
-    <cellStyle name="40% - Accent5 3 2" xfId="377"/>
-    <cellStyle name="40% - Accent5 4" xfId="259"/>
-    <cellStyle name="40% - Accent5 4 2" xfId="406"/>
-    <cellStyle name="40% - Accent5 5" xfId="148"/>
-    <cellStyle name="40% - Accent5 5 2" xfId="349"/>
+    <cellStyle name="40% - Accent5 2" xfId="95" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="241" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="40% - Accent5 2 2 2" xfId="391" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="40% - Accent5 2 3" xfId="328" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="40% - Accent5 2 3 2" xfId="421" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="40% - Accent5 2 4" xfId="172" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="40% - Accent5 2 5" xfId="363" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="40% - Accent5 3" xfId="219" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="40% - Accent5 3 2" xfId="377" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="40% - Accent5 4" xfId="259" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="40% - Accent5 4 2" xfId="406" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="40% - Accent5 5" xfId="148" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="40% - Accent5 5 2" xfId="349" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
     <cellStyle name="40% - Accent6" xfId="13" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 2" xfId="99"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="243"/>
-    <cellStyle name="40% - Accent6 2 2 2" xfId="393"/>
-    <cellStyle name="40% - Accent6 2 3" xfId="332"/>
-    <cellStyle name="40% - Accent6 2 3 2" xfId="423"/>
-    <cellStyle name="40% - Accent6 2 4" xfId="174"/>
-    <cellStyle name="40% - Accent6 2 5" xfId="365"/>
-    <cellStyle name="40% - Accent6 3" xfId="223"/>
-    <cellStyle name="40% - Accent6 3 2" xfId="379"/>
-    <cellStyle name="40% - Accent6 4" xfId="260"/>
-    <cellStyle name="40% - Accent6 4 2" xfId="407"/>
-    <cellStyle name="40% - Accent6 5" xfId="152"/>
-    <cellStyle name="40% - Accent6 5 2" xfId="351"/>
+    <cellStyle name="40% - Accent6 2" xfId="99" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="243" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="40% - Accent6 2 2 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="40% - Accent6 2 3" xfId="332" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="40% - Accent6 2 3 2" xfId="423" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="40% - Accent6 2 4" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="40% - Accent6 2 5" xfId="365" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="40% - Accent6 3" xfId="223" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="40% - Accent6 3 2" xfId="379" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="40% - Accent6 4" xfId="260" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="40% - Accent6 4 2" xfId="407" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="40% - Accent6 5" xfId="152" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="40% - Accent6 5 2" xfId="351" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
     <cellStyle name="60% - Accent1" xfId="14" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="80"/>
-    <cellStyle name="60% - Accent1 2 2" xfId="313"/>
-    <cellStyle name="60% - Accent1 2 3" xfId="204"/>
-    <cellStyle name="60% - Accent1 3" xfId="261"/>
-    <cellStyle name="60% - Accent1 4" xfId="133"/>
+    <cellStyle name="60% - Accent1 2" xfId="80" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="313" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="60% - Accent1 2 3" xfId="204" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="60% - Accent1 3" xfId="261" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="60% - Accent1 4" xfId="133" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
     <cellStyle name="60% - Accent2" xfId="15" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2 2" xfId="84"/>
-    <cellStyle name="60% - Accent2 2 2" xfId="317"/>
-    <cellStyle name="60% - Accent2 2 3" xfId="208"/>
-    <cellStyle name="60% - Accent2 3" xfId="262"/>
-    <cellStyle name="60% - Accent2 4" xfId="137"/>
+    <cellStyle name="60% - Accent2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="317" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="60% - Accent2 2 3" xfId="208" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="60% - Accent2 3" xfId="262" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="60% - Accent2 4" xfId="137" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
     <cellStyle name="60% - Accent3" xfId="16" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3 2" xfId="88"/>
-    <cellStyle name="60% - Accent3 2 2" xfId="321"/>
-    <cellStyle name="60% - Accent3 2 3" xfId="212"/>
-    <cellStyle name="60% - Accent3 3" xfId="263"/>
-    <cellStyle name="60% - Accent3 4" xfId="141"/>
+    <cellStyle name="60% - Accent3 2" xfId="88" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="60% - Accent3 2 3" xfId="212" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="60% - Accent3 3" xfId="263" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="60% - Accent3 4" xfId="141" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
     <cellStyle name="60% - Accent4" xfId="17" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4 2" xfId="92"/>
-    <cellStyle name="60% - Accent4 2 2" xfId="325"/>
-    <cellStyle name="60% - Accent4 2 3" xfId="216"/>
-    <cellStyle name="60% - Accent4 3" xfId="264"/>
-    <cellStyle name="60% - Accent4 4" xfId="145"/>
+    <cellStyle name="60% - Accent4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="325" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="60% - Accent4 2 3" xfId="216" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="60% - Accent4 3" xfId="264" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="60% - Accent4 4" xfId="145" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
     <cellStyle name="60% - Accent5" xfId="18" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5 2" xfId="96"/>
-    <cellStyle name="60% - Accent5 2 2" xfId="329"/>
-    <cellStyle name="60% - Accent5 2 3" xfId="220"/>
-    <cellStyle name="60% - Accent5 3" xfId="265"/>
-    <cellStyle name="60% - Accent5 4" xfId="149"/>
+    <cellStyle name="60% - Accent5 2" xfId="96" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="329" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="60% - Accent5 2 3" xfId="220" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="60% - Accent5 3" xfId="265" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="60% - Accent5 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
     <cellStyle name="60% - Accent6" xfId="19" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6 2" xfId="100"/>
-    <cellStyle name="60% - Accent6 2 2" xfId="333"/>
-    <cellStyle name="60% - Accent6 2 3" xfId="224"/>
-    <cellStyle name="60% - Accent6 3" xfId="266"/>
-    <cellStyle name="60% - Accent6 4" xfId="153"/>
+    <cellStyle name="60% - Accent6 2" xfId="100" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="333" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="60% - Accent6 2 3" xfId="224" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="60% - Accent6 3" xfId="266" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="60% - Accent6 4" xfId="153" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
     <cellStyle name="Accent1" xfId="20" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent1 2" xfId="77"/>
-    <cellStyle name="Accent1 2 2" xfId="310"/>
-    <cellStyle name="Accent1 2 3" xfId="201"/>
-    <cellStyle name="Accent1 3" xfId="267"/>
-    <cellStyle name="Accent1 4" xfId="130"/>
+    <cellStyle name="Accent1 2" xfId="77" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="310" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Accent1 2 3" xfId="201" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Accent1 3" xfId="267" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Accent1 4" xfId="130" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
     <cellStyle name="Accent2" xfId="21" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent2 2" xfId="81"/>
-    <cellStyle name="Accent2 2 2" xfId="314"/>
-    <cellStyle name="Accent2 2 3" xfId="205"/>
-    <cellStyle name="Accent2 3" xfId="268"/>
-    <cellStyle name="Accent2 4" xfId="134"/>
+    <cellStyle name="Accent2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="314" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Accent2 2 3" xfId="205" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Accent2 3" xfId="268" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Accent2 4" xfId="134" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
     <cellStyle name="Accent3" xfId="22" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent3 2" xfId="85"/>
-    <cellStyle name="Accent3 2 2" xfId="318"/>
-    <cellStyle name="Accent3 2 3" xfId="209"/>
-    <cellStyle name="Accent3 3" xfId="269"/>
-    <cellStyle name="Accent3 4" xfId="138"/>
+    <cellStyle name="Accent3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Accent3 2 2" xfId="318" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Accent3 2 3" xfId="209" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Accent3 3" xfId="269" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Accent3 4" xfId="138" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
     <cellStyle name="Accent4" xfId="23" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent4 2" xfId="89"/>
-    <cellStyle name="Accent4 2 2" xfId="322"/>
-    <cellStyle name="Accent4 2 3" xfId="213"/>
-    <cellStyle name="Accent4 3" xfId="270"/>
-    <cellStyle name="Accent4 4" xfId="142"/>
+    <cellStyle name="Accent4 2" xfId="89" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Accent4 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Accent4 2 3" xfId="213" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Accent4 3" xfId="270" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Accent4 4" xfId="142" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
     <cellStyle name="Accent5" xfId="24" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent5 2" xfId="93"/>
-    <cellStyle name="Accent5 2 2" xfId="326"/>
-    <cellStyle name="Accent5 2 3" xfId="217"/>
-    <cellStyle name="Accent5 3" xfId="271"/>
-    <cellStyle name="Accent5 4" xfId="146"/>
+    <cellStyle name="Accent5 2" xfId="93" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Accent5 2 2" xfId="326" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Accent5 2 3" xfId="217" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Accent5 3" xfId="271" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Accent5 4" xfId="146" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
     <cellStyle name="Accent6" xfId="25" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Accent6 2" xfId="97"/>
-    <cellStyle name="Accent6 2 2" xfId="330"/>
-    <cellStyle name="Accent6 2 3" xfId="221"/>
-    <cellStyle name="Accent6 3" xfId="272"/>
-    <cellStyle name="Accent6 4" xfId="150"/>
+    <cellStyle name="Accent6 2" xfId="97" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Accent6 2 2" xfId="330" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Accent6 2 3" xfId="221" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Accent6 3" xfId="272" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Accent6 4" xfId="150" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
     <cellStyle name="Bad" xfId="26" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Bad 2" xfId="53"/>
-    <cellStyle name="Bad 2 2" xfId="299"/>
-    <cellStyle name="Bad 3" xfId="66"/>
-    <cellStyle name="Bad 3 2" xfId="273"/>
-    <cellStyle name="Bad 4" xfId="120"/>
+    <cellStyle name="Bad 2" xfId="53" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Bad 2 2" xfId="299" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Bad 3" xfId="66" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Bad 3 2" xfId="273" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Bad 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
     <cellStyle name="Calculation" xfId="27" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Calculation 2" xfId="70"/>
-    <cellStyle name="Calculation 2 2" xfId="303"/>
-    <cellStyle name="Calculation 2 3" xfId="195"/>
-    <cellStyle name="Calculation 3" xfId="274"/>
-    <cellStyle name="Calculation 4" xfId="124"/>
-    <cellStyle name="Calculation 5" xfId="430"/>
+    <cellStyle name="Calculation 2" xfId="70" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Calculation 2 2" xfId="303" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Calculation 2 3" xfId="195" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Calculation 3" xfId="274" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Calculation 4" xfId="124" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Calculation 5" xfId="430" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
     <cellStyle name="Check Cell" xfId="28" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Check Cell 2" xfId="72"/>
-    <cellStyle name="Check Cell 2 2" xfId="305"/>
-    <cellStyle name="Check Cell 2 3" xfId="197"/>
-    <cellStyle name="Check Cell 3" xfId="275"/>
-    <cellStyle name="Check Cell 4" xfId="126"/>
+    <cellStyle name="Check Cell 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Check Cell 2 2" xfId="305" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Check Cell 2 3" xfId="197" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Check Cell 3" xfId="275" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Check Cell 4" xfId="126" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
     <cellStyle name="Comma" xfId="29" builtinId="3"/>
-    <cellStyle name="Comma  - Style1" xfId="30"/>
-    <cellStyle name="Comma  - Style1 2" xfId="180"/>
-    <cellStyle name="Comma  - Style1 3" xfId="104"/>
-    <cellStyle name="Comma 2" xfId="105"/>
-    <cellStyle name="Comma 2 2" xfId="158"/>
-    <cellStyle name="Comma 3" xfId="338"/>
-    <cellStyle name="Curren - Style2" xfId="31"/>
-    <cellStyle name="Curren - Style2 2" xfId="181"/>
-    <cellStyle name="Curren - Style2 3" xfId="106"/>
+    <cellStyle name="Comma  - Style1" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Comma  - Style1 2" xfId="180" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Comma  - Style1 3" xfId="104" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Comma 2" xfId="105" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Comma 2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Comma 3" xfId="338" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Curren - Style2" xfId="31" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Curren - Style2 2" xfId="181" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Curren - Style2 3" xfId="106" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
     <cellStyle name="Currency" xfId="57" builtinId="4"/>
-    <cellStyle name="Currency 2" xfId="51"/>
-    <cellStyle name="Currency 3" xfId="56"/>
-    <cellStyle name="Currency 4" xfId="335"/>
-    <cellStyle name="Currency 5" xfId="425"/>
-    <cellStyle name="Currency 6" xfId="428"/>
+    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Currency 3" xfId="56" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Currency 4" xfId="335" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Currency 5" xfId="425" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Currency 6" xfId="428" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
     <cellStyle name="Explanatory Text" xfId="32" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text 2" xfId="75"/>
-    <cellStyle name="Explanatory Text 2 2" xfId="308"/>
-    <cellStyle name="Explanatory Text 2 3" xfId="199"/>
-    <cellStyle name="Explanatory Text 3" xfId="276"/>
-    <cellStyle name="Explanatory Text 4" xfId="128"/>
+    <cellStyle name="Explanatory Text 2" xfId="75" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="308" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Explanatory Text 2 3" xfId="199" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Explanatory Text 3" xfId="276" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Explanatory Text 4" xfId="128" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
     <cellStyle name="Good" xfId="33" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Good 2" xfId="52"/>
-    <cellStyle name="Good 2 2" xfId="298"/>
-    <cellStyle name="Good 3" xfId="65"/>
-    <cellStyle name="Good 3 2" xfId="277"/>
-    <cellStyle name="Good 4" xfId="119"/>
+    <cellStyle name="Good 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Good 2 2" xfId="298" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Good 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Good 3 2" xfId="277" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Good 4" xfId="119" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
     <cellStyle name="Heading 1" xfId="34" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 1 2" xfId="61"/>
-    <cellStyle name="Heading 1 2 2" xfId="294"/>
-    <cellStyle name="Heading 1 2 3" xfId="188"/>
-    <cellStyle name="Heading 1 3" xfId="278"/>
-    <cellStyle name="Heading 1 4" xfId="115"/>
+    <cellStyle name="Heading 1 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="294" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Heading 1 2 3" xfId="188" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Heading 1 3" xfId="278" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Heading 1 4" xfId="115" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
     <cellStyle name="Heading 2" xfId="35" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 2 2" xfId="62"/>
-    <cellStyle name="Heading 2 2 2" xfId="295"/>
-    <cellStyle name="Heading 2 2 3" xfId="189"/>
-    <cellStyle name="Heading 2 3" xfId="279"/>
-    <cellStyle name="Heading 2 4" xfId="116"/>
+    <cellStyle name="Heading 2 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="295" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Heading 2 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Heading 2 3" xfId="279" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Heading 2 4" xfId="116" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
     <cellStyle name="Heading 3" xfId="36" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 3 2" xfId="63"/>
-    <cellStyle name="Heading 3 2 2" xfId="296"/>
-    <cellStyle name="Heading 3 2 3" xfId="190"/>
-    <cellStyle name="Heading 3 3" xfId="280"/>
-    <cellStyle name="Heading 3 4" xfId="117"/>
+    <cellStyle name="Heading 3 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Heading 3 2 2" xfId="296" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Heading 3 2 3" xfId="190" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Heading 3 3" xfId="280" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Heading 3 4" xfId="117" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
     <cellStyle name="Heading 4" xfId="37" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Heading 4 2" xfId="64"/>
-    <cellStyle name="Heading 4 2 2" xfId="297"/>
-    <cellStyle name="Heading 4 2 3" xfId="191"/>
-    <cellStyle name="Heading 4 3" xfId="281"/>
-    <cellStyle name="Heading 4 4" xfId="118"/>
-    <cellStyle name="Hyperlink 2" xfId="182"/>
-    <cellStyle name="Hyperlink 3" xfId="282"/>
-    <cellStyle name="Hyperlink 4" xfId="107"/>
+    <cellStyle name="Heading 4 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Heading 4 2 2" xfId="297" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Heading 4 2 3" xfId="191" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Heading 4 3" xfId="281" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Heading 4 4" xfId="118" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Hyperlink 2" xfId="182" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Hyperlink 3" xfId="282" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Hyperlink 4" xfId="107" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
     <cellStyle name="Input" xfId="38" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input 2" xfId="68"/>
-    <cellStyle name="Input 2 2" xfId="301"/>
-    <cellStyle name="Input 2 3" xfId="193"/>
-    <cellStyle name="Input 3" xfId="283"/>
-    <cellStyle name="Input 4" xfId="122"/>
+    <cellStyle name="Input 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Input 2 2" xfId="301" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Input 2 3" xfId="193" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Input 3" xfId="283" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Input 4" xfId="122" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
     <cellStyle name="Linked Cell" xfId="39" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Linked Cell 2" xfId="71"/>
-    <cellStyle name="Linked Cell 2 2" xfId="304"/>
-    <cellStyle name="Linked Cell 2 3" xfId="196"/>
-    <cellStyle name="Linked Cell 3" xfId="284"/>
-    <cellStyle name="Linked Cell 4" xfId="125"/>
+    <cellStyle name="Linked Cell 2" xfId="71" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Linked Cell 2 2" xfId="304" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Linked Cell 2 3" xfId="196" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Linked Cell 3" xfId="284" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Linked Cell 4" xfId="125" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
     <cellStyle name="Neutral" xfId="40" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="67"/>
-    <cellStyle name="Neutral 2 2" xfId="300"/>
-    <cellStyle name="Neutral 2 3" xfId="192"/>
-    <cellStyle name="Neutral 3" xfId="285"/>
-    <cellStyle name="Neutral 4" xfId="121"/>
+    <cellStyle name="Neutral 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Neutral 2 2" xfId="300" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Neutral 2 3" xfId="192" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Neutral 3" xfId="285" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Neutral 4" xfId="121" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style3" xfId="41"/>
-    <cellStyle name="Normal - Style3 2" xfId="183"/>
-    <cellStyle name="Normal - Style3 3" xfId="108"/>
-    <cellStyle name="Normal 10" xfId="427"/>
-    <cellStyle name="Normal 2" xfId="49"/>
-    <cellStyle name="Normal 2 2" xfId="159"/>
-    <cellStyle name="Normal 2 2 2" xfId="229"/>
-    <cellStyle name="Normal 2 3" xfId="184"/>
-    <cellStyle name="Normal 2 4" xfId="286"/>
-    <cellStyle name="Normal 2 4 2" xfId="408"/>
-    <cellStyle name="Normal 2 5" xfId="109"/>
-    <cellStyle name="Normal 3" xfId="54"/>
-    <cellStyle name="Normal 3 2" xfId="160"/>
-    <cellStyle name="Normal 3 2 2" xfId="230"/>
-    <cellStyle name="Normal 3 3" xfId="185"/>
-    <cellStyle name="Normal 3 4" xfId="292"/>
-    <cellStyle name="Normal 3 4 2" xfId="410"/>
-    <cellStyle name="Normal 3 5" xfId="110"/>
-    <cellStyle name="Normal 4" xfId="59"/>
-    <cellStyle name="Normal 4 2" xfId="175"/>
-    <cellStyle name="Normal 4 2 2" xfId="244"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="394"/>
-    <cellStyle name="Normal 4 2 3" xfId="366"/>
-    <cellStyle name="Normal 4 3" xfId="225"/>
-    <cellStyle name="Normal 4 3 2" xfId="380"/>
-    <cellStyle name="Normal 4 4" xfId="154"/>
-    <cellStyle name="Normal 4 5" xfId="352"/>
-    <cellStyle name="Normal 5" xfId="177"/>
-    <cellStyle name="Normal 6" xfId="246"/>
-    <cellStyle name="Normal 7" xfId="101"/>
-    <cellStyle name="Normal 7 2" xfId="337"/>
-    <cellStyle name="Normal 8" xfId="334"/>
-    <cellStyle name="Normal 9" xfId="424"/>
-    <cellStyle name="Normal_ESTIMATES&amp;PEs" xfId="42"/>
-    <cellStyle name="Normal_SP500" xfId="43"/>
+    <cellStyle name="Normal - Style3" xfId="41" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Normal - Style3 2" xfId="183" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Normal - Style3 3" xfId="108" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Normal 10" xfId="427" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 2 2" xfId="159" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="229" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Normal 2 3" xfId="184" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Normal 2 4" xfId="286" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="408" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Normal 2 5" xfId="109" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Normal 3" xfId="54" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Normal 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Normal 3 3" xfId="185" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Normal 3 4" xfId="292" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="410" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Normal 3 5" xfId="110" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Normal 4" xfId="59" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Normal 4 2" xfId="175" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="244" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="394" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="366" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Normal 4 3" xfId="225" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Normal 4 4" xfId="154" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Normal 4 5" xfId="352" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Normal 5" xfId="177" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Normal 6" xfId="246" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Normal 7" xfId="101" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Normal 7 2" xfId="337" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Normal 8" xfId="334" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Normal 9" xfId="424" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Normal_ESTIMATES&amp;PEs" xfId="42" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Normal_SP500" xfId="43" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
     <cellStyle name="Note" xfId="44" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Note 2" xfId="74"/>
-    <cellStyle name="Note 2 2" xfId="176"/>
-    <cellStyle name="Note 2 2 2" xfId="245"/>
-    <cellStyle name="Note 2 2 2 2" xfId="395"/>
-    <cellStyle name="Note 2 2 3" xfId="367"/>
-    <cellStyle name="Note 2 3" xfId="226"/>
-    <cellStyle name="Note 2 3 2" xfId="381"/>
-    <cellStyle name="Note 2 4" xfId="287"/>
-    <cellStyle name="Note 2 4 2" xfId="409"/>
-    <cellStyle name="Note 2 5" xfId="155"/>
-    <cellStyle name="Note 2 6" xfId="353"/>
-    <cellStyle name="Note 3" xfId="307"/>
-    <cellStyle name="Note 3 2" xfId="411"/>
+    <cellStyle name="Note 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Note 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Note 2 2 2" xfId="245" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Note 2 2 2 2" xfId="395" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Note 2 2 3" xfId="367" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Note 2 3" xfId="226" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Note 2 3 2" xfId="381" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Note 2 4" xfId="287" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Note 2 4 2" xfId="409" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Note 2 5" xfId="155" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Note 2 6" xfId="353" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Note 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Note 3 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
     <cellStyle name="Output" xfId="45" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Output 2" xfId="69"/>
-    <cellStyle name="Output 2 2" xfId="302"/>
-    <cellStyle name="Output 2 3" xfId="194"/>
-    <cellStyle name="Output 3" xfId="288"/>
-    <cellStyle name="Output 4" xfId="123"/>
+    <cellStyle name="Output 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Output 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Output 2 3" xfId="194" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Output 3" xfId="288" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Output 4" xfId="123" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
     <cellStyle name="Percent" xfId="58" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="50"/>
-    <cellStyle name="Percent 2 2" xfId="161"/>
-    <cellStyle name="Percent 2 3" xfId="112"/>
-    <cellStyle name="Percent 3" xfId="55"/>
-    <cellStyle name="Percent 3 2" xfId="339"/>
-    <cellStyle name="Percent 4" xfId="111"/>
-    <cellStyle name="Percent 5" xfId="336"/>
-    <cellStyle name="Percent 6" xfId="426"/>
-    <cellStyle name="Percent 7" xfId="429"/>
-    <cellStyle name="Style 1" xfId="113"/>
-    <cellStyle name="Style 1 2" xfId="162"/>
-    <cellStyle name="Style 1 2 2" xfId="231"/>
-    <cellStyle name="Style 1 3" xfId="186"/>
+    <cellStyle name="Percent 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Percent 2 2" xfId="161" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Percent 2 3" xfId="112" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Percent 3" xfId="55" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Percent 3 2" xfId="339" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Percent 4" xfId="111" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Percent 5" xfId="336" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Percent 6" xfId="426" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Percent 7" xfId="429" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Style 1" xfId="113" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Style 1 2" xfId="162" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Style 1 2 2" xfId="231" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Style 1 3" xfId="186" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
     <cellStyle name="Title" xfId="46" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Title 2" xfId="60"/>
-    <cellStyle name="Title 2 2" xfId="293"/>
-    <cellStyle name="Title 2 3" xfId="187"/>
-    <cellStyle name="Title 3" xfId="289"/>
-    <cellStyle name="Title 4" xfId="114"/>
+    <cellStyle name="Title 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Title 2 2" xfId="293" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Title 2 3" xfId="187" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Title 3" xfId="289" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Title 4" xfId="114" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
     <cellStyle name="Total" xfId="47" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Total 2" xfId="76"/>
-    <cellStyle name="Total 2 2" xfId="309"/>
-    <cellStyle name="Total 2 3" xfId="200"/>
-    <cellStyle name="Total 3" xfId="290"/>
-    <cellStyle name="Total 4" xfId="129"/>
+    <cellStyle name="Total 2" xfId="76" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Total 2 2" xfId="309" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Total 2 3" xfId="200" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Total 3" xfId="290" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Total 4" xfId="129" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
     <cellStyle name="Warning Text" xfId="48" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Warning Text 2" xfId="73"/>
-    <cellStyle name="Warning Text 2 2" xfId="306"/>
-    <cellStyle name="Warning Text 2 3" xfId="198"/>
-    <cellStyle name="Warning Text 3" xfId="291"/>
-    <cellStyle name="Warning Text 4" xfId="127"/>
+    <cellStyle name="Warning Text 2" xfId="73" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Warning Text 2 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Warning Text 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Warning Text 3" xfId="291" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Warning Text 4" xfId="127" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5022,6 +4988,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -5057,6 +5040,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5232,11 +5232,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL292"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5309,7 +5309,7 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="8" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A8" s="228" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B8" s="228"/>
       <c r="C8" s="228"/>
@@ -5369,7 +5369,7 @@
       <c r="F8" s="230"/>
       <c r="G8" s="247"/>
       <c r="H8" s="228" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I8" s="247"/>
       <c r="J8" s="247"/>
@@ -5380,13 +5380,13 @@
       </c>
       <c r="B9" s="228"/>
       <c r="C9" s="235" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D9" s="235" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E9" s="235" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F9" s="235" t="s">
         <v>344</v>
@@ -5394,17 +5394,17 @@
       <c r="G9" s="231"/>
       <c r="H9" s="228"/>
       <c r="I9" s="235" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="J9" s="235" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="K9" s="228"/>
       <c r="L9" s="228"/>
     </row>
     <row r="10" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A10" s="228" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B10" s="228"/>
       <c r="C10" s="229">
@@ -5432,7 +5432,7 @@
     </row>
     <row r="11" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A11" s="228" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B11" s="228"/>
       <c r="C11" s="229">
@@ -5462,7 +5462,7 @@
     </row>
     <row r="12" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A12" s="228" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B12" s="228"/>
       <c r="C12" s="229">
@@ -5490,7 +5490,7 @@
     </row>
     <row r="13" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A13" s="228" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B13" s="228"/>
       <c r="C13" s="229">
@@ -5576,7 +5576,7 @@
     </row>
     <row r="16" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A16" s="228" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B16" s="228"/>
       <c r="C16" s="229">
@@ -5632,7 +5632,7 @@
     </row>
     <row r="18" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A18" s="228" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B18" s="228"/>
       <c r="C18" s="229">
@@ -5660,7 +5660,7 @@
     </row>
     <row r="19" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A19" s="228" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B19" s="228"/>
       <c r="C19" s="229">
@@ -5690,7 +5690,7 @@
     </row>
     <row r="20" spans="1:12" s="227" customFormat="1" ht="18">
       <c r="A20" s="228" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B20" s="228"/>
       <c r="C20" s="229">
@@ -5718,7 +5718,7 @@
     </row>
     <row r="21" spans="1:12" s="227" customFormat="1" ht="18.75" customHeight="1">
       <c r="A21" s="228" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B21" s="228"/>
       <c r="C21" s="229">
@@ -6745,7 +6745,7 @@
     </row>
     <row r="47" spans="1:38" s="7" customFormat="1">
       <c r="A47" s="149" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B47" s="149"/>
       <c r="C47" s="145">
@@ -7167,7 +7167,7 @@
       <c r="A55" s="155"/>
       <c r="B55" s="155"/>
       <c r="C55" s="156" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D55" s="156" t="s">
         <v>217</v>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="F55" s="156"/>
       <c r="G55" s="156" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="H55" s="156" t="s">
         <v>217</v>
@@ -7187,7 +7187,7 @@
       </c>
       <c r="J55" s="156"/>
       <c r="K55" s="156" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="L55" s="156" t="s">
         <v>217</v>
@@ -7287,7 +7287,7 @@
     </row>
     <row r="58" spans="1:38">
       <c r="A58" s="161" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B58" s="162"/>
       <c r="C58" s="162">
@@ -7906,10 +7906,10 @@
         <v>180</v>
       </c>
       <c r="B74" s="120" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C74" s="120" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D74" s="120" t="s">
         <v>376</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="75" spans="1:27" s="7" customFormat="1">
       <c r="A75" s="165" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15">
@@ -8021,7 +8021,7 @@
     </row>
     <row r="76" spans="1:27" s="7" customFormat="1">
       <c r="A76" s="165" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B76" s="15"/>
       <c r="C76" s="15">
@@ -8080,7 +8080,7 @@
     </row>
     <row r="77" spans="1:27" s="7" customFormat="1">
       <c r="A77" s="165" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B77" s="15">
         <f>SALES!D32</f>
@@ -8142,7 +8142,7 @@
     </row>
     <row r="78" spans="1:27" s="7" customFormat="1">
       <c r="A78" s="165" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="B78" s="15">
         <v>5.8631263175576244E-2</v>
@@ -8271,28 +8271,28 @@
         <v>156</v>
       </c>
       <c r="B82" s="115" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C82" s="115" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D82" s="115" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E82" s="115" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F82" s="115" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="G82" s="59" t="s">
         <v>238</v>
       </c>
       <c r="H82" s="167" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I82" s="167" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J82" s="190" t="str">
         <f t="shared" ref="J82:J87" si="3">A82</f>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="116" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B90" s="189">
         <f t="shared" ref="B90:E90" si="5">B89/B88-1</f>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="116" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B91" s="189">
         <f t="shared" ref="B91:H91" si="7">B89/B86-1</f>
@@ -8684,7 +8684,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="116" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B92" s="189">
         <f t="shared" ref="B92:E92" si="8">B89/B84-1</f>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="116" spans="1:20">
       <c r="A116" s="288" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="118" spans="1:20" ht="15.75" customHeight="1">
       <c r="A118" s="113" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -9792,7 +9792,7 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="32" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B127" s="86"/>
       <c r="C127" s="63">
@@ -9824,7 +9824,7 @@
     </row>
     <row r="128" spans="1:20">
       <c r="A128" s="32" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B128" s="86"/>
       <c r="C128" s="63">
@@ -9854,9 +9854,9 @@
       </c>
       <c r="K128" s="83"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:13">
       <c r="A129" s="32" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B129" s="86"/>
       <c r="C129" s="63">
@@ -9886,9 +9886,9 @@
       </c>
       <c r="K129" s="83"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:13">
       <c r="A130" s="32" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B130" s="86"/>
       <c r="C130" s="63">
@@ -9918,9 +9918,9 @@
       </c>
       <c r="K130" s="83"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:13">
       <c r="A131" s="32" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B131" s="86"/>
       <c r="C131" s="63">
@@ -9950,9 +9950,9 @@
       </c>
       <c r="K131" s="83"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:13">
       <c r="A132" s="32" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B132" s="86"/>
       <c r="C132" s="63">
@@ -9982,9 +9982,9 @@
       </c>
       <c r="K132" s="83"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:13">
       <c r="A133" s="32" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B133" s="86">
         <v>3100.2851286595301</v>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="K133" s="83"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:13">
       <c r="A134" s="32"/>
       <c r="B134" s="86"/>
       <c r="C134" s="63"/>
@@ -10032,16 +10032,16 @@
         <v>32.130636632392267</v>
       </c>
       <c r="H134" s="88" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="I134" s="57"/>
       <c r="J134" s="57"/>
       <c r="K134" s="59"/>
       <c r="L134" s="86"/>
     </row>
-    <row r="135" spans="1:12" ht="12.75" customHeight="1">
+    <row r="135" spans="1:13" ht="12.75" customHeight="1">
       <c r="A135" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B135" s="86"/>
       <c r="C135" s="63"/>
@@ -10055,9 +10055,9 @@
       <c r="K135" s="59"/>
       <c r="L135" s="86"/>
     </row>
-    <row r="136" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A136" s="32" t="s">
-        <v>572</v>
+    <row r="136" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A136" s="48">
+        <v>43921</v>
       </c>
       <c r="B136" s="86">
         <v>2584.5907599343</v>
@@ -10089,9 +10089,9 @@
       <c r="K136" s="59"/>
       <c r="L136" s="86"/>
     </row>
-    <row r="137" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A137" s="32" t="s">
-        <v>502</v>
+    <row r="137" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A137" s="48">
+        <v>43830</v>
       </c>
       <c r="B137" s="86">
         <v>3230.7819500904302</v>
@@ -10123,9 +10123,9 @@
       <c r="K137" s="59"/>
       <c r="L137" s="86"/>
     </row>
-    <row r="138" spans="1:12">
-      <c r="A138" s="32" t="s">
-        <v>472</v>
+    <row r="138" spans="1:13">
+      <c r="A138" s="48">
+        <v>43738</v>
       </c>
       <c r="B138" s="86">
         <v>2976.73727174433</v>
@@ -10157,9 +10157,9 @@
       <c r="K138" s="59"/>
       <c r="L138" s="86"/>
     </row>
-    <row r="139" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A139" s="16" t="s">
-        <v>457</v>
+    <row r="139" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A139" s="48">
+        <v>43646</v>
       </c>
       <c r="B139" s="86">
         <v>2941.76</v>
@@ -10191,9 +10191,9 @@
       <c r="K139" s="59"/>
       <c r="L139" s="86"/>
     </row>
-    <row r="140" spans="1:12">
-      <c r="A140" s="32" t="s">
-        <v>443</v>
+    <row r="140" spans="1:13">
+      <c r="A140" s="48">
+        <v>43555</v>
       </c>
       <c r="B140" s="86">
         <v>2834.4</v>
@@ -10224,10 +10224,11 @@
       </c>
       <c r="K140" s="59"/>
       <c r="L140" s="59"/>
-    </row>
-    <row r="141" spans="1:12">
-      <c r="A141" s="32" t="s">
-        <v>432</v>
+      <c r="M140" s="48"/>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141" s="48">
+        <v>43465</v>
       </c>
       <c r="B141" s="86">
         <v>2506.85</v>
@@ -10259,9 +10260,9 @@
       <c r="K141" s="59"/>
       <c r="L141" s="59"/>
     </row>
-    <row r="142" spans="1:12" ht="12.75" customHeight="1">
-      <c r="A142" s="32" t="s">
-        <v>408</v>
+    <row r="142" spans="1:13" ht="12.75" customHeight="1">
+      <c r="A142" s="48">
+        <v>43373</v>
       </c>
       <c r="B142" s="86">
         <v>2913.97813988603</v>
@@ -10293,9 +10294,9 @@
       <c r="K142" s="59"/>
       <c r="L142" s="59"/>
     </row>
-    <row r="143" spans="1:12">
-      <c r="A143" s="32" t="s">
-        <v>399</v>
+    <row r="143" spans="1:13">
+      <c r="A143" s="48">
+        <v>43281</v>
       </c>
       <c r="B143" s="86">
         <v>2718.37</v>
@@ -10327,9 +10328,9 @@
       <c r="K143" s="59"/>
       <c r="L143" s="59"/>
     </row>
-    <row r="144" spans="1:12">
-      <c r="A144" s="32" t="s">
-        <v>381</v>
+    <row r="144" spans="1:13">
+      <c r="A144" s="48">
+        <v>43190</v>
       </c>
       <c r="B144" s="86">
         <v>2640.8659903292901</v>
@@ -14612,7 +14613,7 @@
       <c r="M292" s="298"/>
     </row>
   </sheetData>
-  <sortState ref="A2:A3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A3">
     <sortCondition ref="A2:A3"/>
   </sortState>
   <mergeCells count="1">
@@ -14620,7 +14621,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" display="howard_silverblatt@spdji.com"/>
+    <hyperlink ref="E4" r:id="rId1" display="howard_silverblatt@spdji.com" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.5" footer="0.5"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId2"/>
@@ -14629,7 +14630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14986,40 +14987,40 @@
         <v>333</v>
       </c>
       <c r="AU6" s="78" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AV6" s="78" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="AW6" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="AX6" s="264" t="s">
+        <v>509</v>
+      </c>
+      <c r="AY6" s="78" t="s">
+        <v>587</v>
+      </c>
+      <c r="AZ6" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="BA6" s="78" t="s">
+        <v>419</v>
+      </c>
+      <c r="BB6" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC6" s="78" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD6" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="BE6" s="78" t="s">
+        <v>470</v>
+      </c>
+      <c r="BF6" s="78" t="s">
         <v>471</v>
-      </c>
-      <c r="AX6" s="264" t="s">
-        <v>517</v>
-      </c>
-      <c r="AY6" s="78" t="s">
-        <v>596</v>
-      </c>
-      <c r="AZ6" s="78" t="s">
-        <v>421</v>
-      </c>
-      <c r="BA6" s="78" t="s">
-        <v>422</v>
-      </c>
-      <c r="BB6" s="78" t="s">
-        <v>423</v>
-      </c>
-      <c r="BC6" s="78" t="s">
-        <v>475</v>
-      </c>
-      <c r="BD6" s="78" t="s">
-        <v>476</v>
-      </c>
-      <c r="BE6" s="78" t="s">
-        <v>477</v>
-      </c>
-      <c r="BF6" s="78" t="s">
-        <v>478</v>
       </c>
       <c r="BG6" s="75"/>
       <c r="BH6" s="76" t="s">
@@ -15083,28 +15084,28 @@
         <v>274</v>
       </c>
       <c r="CB6" s="75" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="CC6" s="75" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="CD6" s="75" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="CE6" s="75" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="CF6" s="75" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="CG6" s="75" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="CH6" s="75" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="CI6" s="75" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="CJ6" s="75"/>
       <c r="CK6" s="77" t="s">
@@ -15138,10 +15139,10 @@
         <v>369</v>
       </c>
       <c r="CU6" s="77" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="CV6" s="77" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="CW6" s="69" t="s">
         <v>33</v>
@@ -17870,7 +17871,7 @@
     </row>
     <row r="17" spans="1:101">
       <c r="A17" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B17" s="86">
         <v>197.49</v>
@@ -18166,7 +18167,7 @@
         <v>181.64</v>
       </c>
       <c r="CW17" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:101">
@@ -21580,7 +21581,7 @@
     </row>
     <row r="30" spans="1:101">
       <c r="A30" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B30" s="86">
         <v>147.12</v>
@@ -21871,7 +21872,7 @@
         <v>169.82</v>
       </c>
       <c r="CW30" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:101">
@@ -25174,7 +25175,7 @@
     </row>
     <row r="43" spans="1:101">
       <c r="A43" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B43" s="86">
         <v>3.22</v>
@@ -25470,7 +25471,7 @@
         <v>2.88</v>
       </c>
       <c r="CW43" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="44" spans="1:101">
@@ -28803,7 +28804,7 @@
     </row>
     <row r="56" spans="1:101" s="110" customFormat="1">
       <c r="A56" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B56" s="86">
         <v>196.19</v>
@@ -29099,7 +29100,7 @@
         <v>180.87</v>
       </c>
       <c r="CW56" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:101" s="110" customFormat="1">
@@ -32673,7 +32674,7 @@
     </row>
     <row r="72" spans="1:101">
       <c r="A72" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B72" s="86">
         <v>197.49</v>
@@ -32949,7 +32950,7 @@
         <v>181.64</v>
       </c>
       <c r="CW72" s="69" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:101">
@@ -36123,7 +36124,7 @@
     </row>
     <row r="85" spans="1:101">
       <c r="A85" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B85" s="86">
         <v>147.12</v>
@@ -36394,7 +36395,7 @@
         <v>169.82</v>
       </c>
       <c r="CW85" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="86" spans="1:101">
@@ -39479,7 +39480,7 @@
     </row>
     <row r="98" spans="1:101">
       <c r="A98" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B98" s="86">
         <v>3.22</v>
@@ -39755,7 +39756,7 @@
         <v>2.88</v>
       </c>
       <c r="CW98" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="99" spans="1:101">
@@ -42858,7 +42859,7 @@
     </row>
     <row r="111" spans="1:101" s="110" customFormat="1">
       <c r="A111" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B111" s="86">
         <v>196.19</v>
@@ -43134,7 +43135,7 @@
         <v>180.87</v>
       </c>
       <c r="CW111" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="1:101" s="110" customFormat="1">
@@ -43675,7 +43676,7 @@
     </row>
     <row r="128" spans="1:101">
       <c r="A128" s="69" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -43687,7 +43688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47694,7 +47695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -47742,7 +47743,7 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="79" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B3" s="78"/>
       <c r="C3" s="78"/>
@@ -47773,7 +47774,7 @@
     </row>
     <row r="4" spans="1:27" ht="12.75" customHeight="1">
       <c r="A4" s="79" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -47804,7 +47805,7 @@
     </row>
     <row r="5" spans="1:27" ht="12.75" customHeight="1">
       <c r="A5" s="79" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="B5" s="78"/>
       <c r="C5" s="78"/>
@@ -47851,7 +47852,7 @@
       <c r="K6" s="78"/>
       <c r="L6" s="80"/>
       <c r="M6" s="6" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -47898,7 +47899,7 @@
       <c r="K7" s="80"/>
       <c r="L7" s="81"/>
       <c r="M7" s="6" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="N7" s="152"/>
       <c r="O7" s="153"/>
@@ -47949,7 +47950,7 @@
       <c r="K8" s="81"/>
       <c r="L8" s="81"/>
       <c r="M8" s="6" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -48056,7 +48057,7 @@
       <c r="K10" s="81"/>
       <c r="L10" s="81"/>
       <c r="M10" s="6" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="N10" s="152">
         <v>272</v>
@@ -48172,7 +48173,7 @@
       <c r="K12" s="81"/>
       <c r="L12" s="81"/>
       <c r="M12" s="6" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="N12" s="152">
         <v>131</v>
@@ -48339,10 +48340,10 @@
       <c r="K15" s="81"/>
       <c r="L15" s="81"/>
       <c r="M15" s="6" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="N15" s="151" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O15" s="154" t="s">
         <v>206</v>
@@ -48362,7 +48363,7 @@
     </row>
     <row r="16" spans="1:27" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="A16" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B16" s="271">
         <v>25</v>
@@ -48396,7 +48397,7 @@
       <c r="K16" s="81"/>
       <c r="L16" s="81"/>
       <c r="M16" s="6" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="N16" s="258">
         <v>47</v>
@@ -48610,7 +48611,7 @@
       <c r="K21" s="81"/>
       <c r="L21" s="81"/>
       <c r="M21" s="79" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N21" s="182">
         <f>O13</f>
@@ -48642,7 +48643,7 @@
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
       <c r="M22" s="79" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="N22" s="182">
         <v>0.08</v>
@@ -48682,7 +48683,7 @@
       <c r="K23" s="182"/>
       <c r="L23" s="81"/>
       <c r="M23" s="79" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N23" s="182">
         <v>7.6305220883534142E-2</v>
@@ -48694,7 +48695,7 @@
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1">
       <c r="A24" s="79" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B24" s="93">
         <f>B19</f>
@@ -48732,7 +48733,7 @@
       <c r="K24" s="182"/>
       <c r="L24" s="81"/>
       <c r="M24" s="79" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="N24" s="182">
         <v>8.617234468937876E-2</v>
@@ -48746,7 +48747,7 @@
     </row>
     <row r="25" spans="1:27" ht="12.75" customHeight="1">
       <c r="A25" s="79" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B25" s="93">
         <v>500</v>
@@ -48776,7 +48777,7 @@
       <c r="K25" s="182"/>
       <c r="L25" s="81"/>
       <c r="M25" s="79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N25" s="182">
         <v>7.9840319361277445E-2</v>
@@ -48790,7 +48791,7 @@
     </row>
     <row r="26" spans="1:27" ht="12.75" customHeight="1">
       <c r="A26" s="79" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B26" s="93">
         <v>502</v>
@@ -48820,7 +48821,7 @@
       <c r="K26" s="182"/>
       <c r="L26" s="81"/>
       <c r="M26" s="79" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N26" s="182">
         <v>8.0321285140562249E-2</v>
@@ -48834,7 +48835,7 @@
     </row>
     <row r="27" spans="1:27" ht="12.75" customHeight="1">
       <c r="A27" s="79" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B27" s="93">
         <v>498</v>
@@ -48878,7 +48879,7 @@
     </row>
     <row r="28" spans="1:27" ht="12.75" customHeight="1">
       <c r="A28" s="79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B28" s="93">
         <v>497</v>
@@ -48922,7 +48923,7 @@
     </row>
     <row r="29" spans="1:27" ht="12.75" customHeight="1">
       <c r="A29" s="79" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B29" s="93">
         <v>501</v>
@@ -50205,7 +50206,7 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="79" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B60" s="78"/>
       <c r="C60" s="78"/>
@@ -50267,7 +50268,7 @@
     </row>
     <row r="62" spans="1:27" ht="12.75" customHeight="1">
       <c r="A62" s="79" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B62" s="78"/>
       <c r="C62" s="78"/>
@@ -50314,7 +50315,7 @@
       <c r="K63" s="78"/>
       <c r="L63" s="80"/>
       <c r="M63" s="155" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="N63" s="155"/>
       <c r="O63" s="155"/>
@@ -50361,7 +50362,7 @@
       <c r="K64" s="80"/>
       <c r="L64" s="81"/>
       <c r="M64" s="155" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="N64" s="183"/>
       <c r="O64" s="184"/>
@@ -50408,7 +50409,7 @@
       <c r="K65" s="81"/>
       <c r="L65" s="81"/>
       <c r="M65" s="155" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N65" s="155"/>
       <c r="O65" s="155"/>
@@ -50507,7 +50508,7 @@
       <c r="K67" s="81"/>
       <c r="L67" s="81"/>
       <c r="M67" s="155" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="N67" s="183">
         <v>323</v>
@@ -50613,7 +50614,7 @@
       <c r="K69" s="81"/>
       <c r="L69" s="81"/>
       <c r="M69" s="155" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="N69" s="183">
         <v>164</v>
@@ -50766,10 +50767,10 @@
       <c r="K72" s="81"/>
       <c r="L72" s="81"/>
       <c r="M72" s="155" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="N72" s="294" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O72" s="185" t="s">
         <v>206</v>
@@ -50789,7 +50790,7 @@
     </row>
     <row r="73" spans="1:27" s="88" customFormat="1" ht="12.75" customHeight="1">
       <c r="A73" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B73" s="271">
         <v>25</v>
@@ -50819,7 +50820,7 @@
       <c r="K73" s="81"/>
       <c r="L73" s="81"/>
       <c r="M73" s="155" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="N73" s="295">
         <v>71</v>
@@ -51014,7 +51015,7 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" s="79" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B79" s="78"/>
       <c r="C79" s="78"/>
@@ -51045,7 +51046,7 @@
     </row>
     <row r="80" spans="1:27" ht="12.75" customHeight="1">
       <c r="A80" s="79" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B80" s="78"/>
       <c r="C80" s="78"/>
@@ -51076,7 +51077,7 @@
     </row>
     <row r="81" spans="1:27" ht="12.75" customHeight="1">
       <c r="A81" s="79" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B81" s="78"/>
       <c r="C81" s="78"/>
@@ -51123,7 +51124,7 @@
       <c r="K82" s="78"/>
       <c r="L82" s="80"/>
       <c r="M82" s="155" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N82" s="155"/>
       <c r="O82" s="155"/>
@@ -51170,7 +51171,7 @@
       <c r="K83" s="80"/>
       <c r="L83" s="81"/>
       <c r="M83" s="155" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="N83" s="183"/>
       <c r="O83" s="184"/>
@@ -51221,7 +51222,7 @@
       <c r="K84" s="81"/>
       <c r="L84" s="81"/>
       <c r="M84" s="155" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N84" s="155"/>
       <c r="O84" s="155"/>
@@ -51328,7 +51329,7 @@
       <c r="K86" s="81"/>
       <c r="L86" s="81"/>
       <c r="M86" s="155" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="N86" s="183">
         <v>316</v>
@@ -51444,7 +51445,7 @@
       <c r="K88" s="81"/>
       <c r="L88" s="81"/>
       <c r="M88" s="155" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="N88" s="183">
         <v>165</v>
@@ -51611,10 +51612,10 @@
       <c r="K91" s="81"/>
       <c r="L91" s="81"/>
       <c r="M91" s="155" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="N91" s="294" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O91" s="185" t="s">
         <v>206</v>
@@ -51634,7 +51635,7 @@
     </row>
     <row r="92" spans="1:27" s="88" customFormat="1" ht="12.75" customHeight="1">
       <c r="A92" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B92" s="271">
         <v>25</v>
@@ -51668,7 +51669,7 @@
       <c r="K92" s="81"/>
       <c r="L92" s="81"/>
       <c r="M92" s="155" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="N92" s="295">
         <v>68</v>
@@ -51876,7 +51877,7 @@
     </row>
     <row r="98" spans="1:27" ht="12.75" customHeight="1">
       <c r="A98" s="79" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B98" s="78"/>
       <c r="C98" s="78"/>
@@ -51907,7 +51908,7 @@
     </row>
     <row r="99" spans="1:27" ht="12.75" customHeight="1">
       <c r="A99" s="79" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B99" s="78"/>
       <c r="C99" s="78"/>
@@ -51936,7 +51937,7 @@
     </row>
     <row r="100" spans="1:27" ht="12.75" customHeight="1">
       <c r="A100" s="79" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B100" s="78"/>
       <c r="C100" s="78"/>
@@ -52026,7 +52027,7 @@
       <c r="K102" s="81"/>
       <c r="L102" s="81"/>
       <c r="M102" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
@@ -52074,7 +52075,7 @@
       <c r="K103" s="81"/>
       <c r="L103" s="81"/>
       <c r="M103" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="N103" s="152"/>
       <c r="O103" s="153"/>
@@ -52225,7 +52226,7 @@
       <c r="K106" s="81"/>
       <c r="L106" s="81"/>
       <c r="M106" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="N106" s="152">
         <v>334</v>
@@ -52331,7 +52332,7 @@
       <c r="K108" s="81"/>
       <c r="L108" s="81"/>
       <c r="M108" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N108" s="152">
         <v>152</v>
@@ -52452,7 +52453,7 @@
     </row>
     <row r="111" spans="1:27" ht="12.75" customHeight="1">
       <c r="A111" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B111" s="92">
         <v>25</v>
@@ -52482,10 +52483,10 @@
       <c r="K111" s="81"/>
       <c r="L111" s="81"/>
       <c r="M111" s="6" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="N111" s="151" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="O111" s="154" t="s">
         <v>206</v>
@@ -52533,7 +52534,7 @@
       <c r="K112" s="81"/>
       <c r="L112" s="81"/>
       <c r="M112" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="N112" s="258">
         <v>73</v>
@@ -52707,7 +52708,7 @@
     </row>
     <row r="117" spans="1:27" ht="12.75" customHeight="1">
       <c r="A117" s="79" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B117" s="78"/>
       <c r="C117" s="78"/>
@@ -52738,7 +52739,7 @@
     </row>
     <row r="118" spans="1:27" ht="12.75" customHeight="1">
       <c r="A118" s="79" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B118" s="78"/>
       <c r="C118" s="78"/>
@@ -52769,7 +52770,7 @@
     </row>
     <row r="119" spans="1:27" ht="12.75" customHeight="1">
       <c r="A119" s="79" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B119" s="78"/>
       <c r="C119" s="78"/>
@@ -52859,7 +52860,7 @@
       <c r="K121" s="81"/>
       <c r="L121" s="81"/>
       <c r="M121" s="155" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N121" s="155"/>
       <c r="O121" s="155"/>
@@ -52910,7 +52911,7 @@
       <c r="K122" s="81"/>
       <c r="L122" s="81"/>
       <c r="M122" s="155" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="N122" s="183"/>
       <c r="O122" s="184"/>
@@ -53068,7 +53069,7 @@
       <c r="K125" s="81"/>
       <c r="L125" s="81"/>
       <c r="M125" s="155" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="N125" s="183">
         <v>332</v>
@@ -53182,7 +53183,7 @@
       <c r="K127" s="81"/>
       <c r="L127" s="81"/>
       <c r="M127" s="155" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="N127" s="183">
         <v>151</v>
@@ -53315,7 +53316,7 @@
     </row>
     <row r="130" spans="1:27" ht="12.75" customHeight="1">
       <c r="A130" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B130" s="92">
         <v>25</v>
@@ -53586,7 +53587,7 @@
     </row>
     <row r="137" spans="1:27" ht="12.75" customHeight="1">
       <c r="A137" s="79" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B137" s="78"/>
       <c r="C137" s="78"/>
@@ -53615,7 +53616,7 @@
     </row>
     <row r="138" spans="1:27" ht="12.75" customHeight="1">
       <c r="A138" s="79" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B138" s="78"/>
       <c r="C138" s="78"/>
@@ -53644,7 +53645,7 @@
     </row>
     <row r="139" spans="1:27" ht="12.75" customHeight="1">
       <c r="A139" s="79" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B139" s="78"/>
       <c r="C139" s="78"/>
@@ -53735,7 +53736,7 @@
       <c r="K141" s="81"/>
       <c r="L141" s="81"/>
       <c r="M141" s="155" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N141" s="155"/>
       <c r="O141" s="155"/>
@@ -53782,7 +53783,7 @@
       <c r="K142" s="81"/>
       <c r="L142" s="81"/>
       <c r="M142" s="155" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="N142" s="183"/>
       <c r="O142" s="184"/>
@@ -53933,7 +53934,7 @@
       <c r="K145" s="81"/>
       <c r="L145" s="81"/>
       <c r="M145" s="155" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="N145" s="183">
         <v>337</v>
@@ -54037,7 +54038,7 @@
       <c r="K147" s="81"/>
       <c r="L147" s="81"/>
       <c r="M147" s="155" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="N147" s="183">
         <v>154</v>
@@ -54145,7 +54146,7 @@
     </row>
     <row r="150" spans="1:27" ht="12.75" customHeight="1">
       <c r="A150" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B150" s="92">
         <v>25</v>
@@ -54395,7 +54396,7 @@
     </row>
     <row r="157" spans="1:27" ht="12.75" customHeight="1">
       <c r="A157" s="79" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B157" s="78"/>
       <c r="C157" s="78"/>
@@ -54424,7 +54425,7 @@
     </row>
     <row r="158" spans="1:27" ht="12.75" customHeight="1">
       <c r="A158" s="79" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B158" s="78"/>
       <c r="C158" s="78"/>
@@ -54453,7 +54454,7 @@
     </row>
     <row r="159" spans="1:27" ht="12.75" customHeight="1">
       <c r="A159" s="79" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B159" s="78"/>
       <c r="C159" s="78"/>
@@ -54591,7 +54592,7 @@
       <c r="K162" s="81"/>
       <c r="L162" s="81"/>
       <c r="M162" s="6" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="N162" s="152"/>
       <c r="O162" s="153"/>
@@ -54742,7 +54743,7 @@
       <c r="K165" s="81"/>
       <c r="L165" s="81"/>
       <c r="M165" s="6" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="N165" s="152">
         <v>326</v>
@@ -54846,7 +54847,7 @@
       <c r="K167" s="81"/>
       <c r="L167" s="81"/>
       <c r="M167" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="N167" s="152">
         <v>164</v>
@@ -54954,7 +54955,7 @@
     </row>
     <row r="170" spans="1:27" ht="12.75" customHeight="1">
       <c r="A170" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B170" s="92">
         <v>25</v>
@@ -55212,7 +55213,7 @@
     </row>
     <row r="177" spans="1:27" ht="12.75" customHeight="1">
       <c r="A177" s="79" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B177" s="78"/>
       <c r="C177" s="78"/>
@@ -55241,7 +55242,7 @@
     </row>
     <row r="178" spans="1:27" ht="12.75" customHeight="1">
       <c r="A178" s="79" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B178" s="78"/>
       <c r="C178" s="78"/>
@@ -55270,7 +55271,7 @@
     </row>
     <row r="179" spans="1:27" ht="12.75" customHeight="1">
       <c r="A179" s="79" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B179" s="78"/>
       <c r="C179" s="78"/>
@@ -55410,7 +55411,7 @@
       <c r="K182" s="81"/>
       <c r="L182" s="81"/>
       <c r="M182" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="N182" s="152"/>
       <c r="O182" s="153"/>
@@ -55561,7 +55562,7 @@
       <c r="K185" s="81"/>
       <c r="L185" s="81"/>
       <c r="M185" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N185" s="152">
         <v>310</v>
@@ -55663,7 +55664,7 @@
       <c r="K187" s="81"/>
       <c r="L187" s="81"/>
       <c r="M187" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N187" s="152">
         <v>178</v>
@@ -55762,7 +55763,7 @@
     </row>
     <row r="190" spans="1:27" ht="12.75" customHeight="1">
       <c r="A190" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B190" s="92">
         <v>25</v>
@@ -56055,7 +56056,7 @@
     </row>
     <row r="198" spans="1:27" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="A198" s="79" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B198" s="78"/>
       <c r="C198" s="78"/>
@@ -56088,7 +56089,7 @@
     </row>
     <row r="199" spans="1:27" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="A199" s="79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B199" s="78"/>
       <c r="C199" s="78"/>
@@ -56588,7 +56589,7 @@
     </row>
     <row r="210" spans="1:19" ht="12.75" customHeight="1">
       <c r="A210" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B210" s="92">
         <v>3</v>
@@ -56787,7 +56788,7 @@
     </row>
     <row r="216" spans="1:19" s="58" customFormat="1" ht="12.75" customHeight="1">
       <c r="A216" s="79" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B216" s="78"/>
       <c r="C216" s="78"/>
@@ -56835,7 +56836,7 @@
     </row>
     <row r="218" spans="1:19" ht="12.75" customHeight="1">
       <c r="A218" s="79" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B218" s="78"/>
       <c r="C218" s="78"/>
@@ -56849,7 +56850,7 @@
       <c r="K218" s="81"/>
       <c r="L218" s="81"/>
       <c r="M218" s="155" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N218" s="183"/>
       <c r="O218" s="184"/>
@@ -56956,7 +56957,7 @@
       <c r="K221" s="81"/>
       <c r="L221" s="81"/>
       <c r="M221" s="155" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N221" s="183">
         <v>300</v>
@@ -57053,7 +57054,7 @@
       <c r="K223" s="81"/>
       <c r="L223" s="81"/>
       <c r="M223" s="155" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N223" s="183">
         <v>194</v>
@@ -57272,7 +57273,7 @@
     </row>
     <row r="229" spans="1:19" ht="12.75" customHeight="1">
       <c r="A229" s="79" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B229" s="92">
         <v>3</v>
@@ -57927,7 +57928,7 @@
     </row>
     <row r="248" spans="1:19" ht="12.75" customHeight="1">
       <c r="A248" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B248" s="92">
         <v>3</v>
@@ -58562,7 +58563,7 @@
     </row>
     <row r="265" spans="1:19" ht="12.75" customHeight="1">
       <c r="A265" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B265" s="92">
         <v>4</v>
@@ -59273,7 +59274,7 @@
     </row>
     <row r="285" spans="1:19" ht="12.75" customHeight="1">
       <c r="A285" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B285" s="92">
         <v>4</v>
@@ -59947,7 +59948,7 @@
     </row>
     <row r="305" spans="1:19" ht="12.75" customHeight="1">
       <c r="A305" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B305" s="92">
         <v>4</v>
@@ -60607,7 +60608,7 @@
     </row>
     <row r="325" spans="1:19" ht="12.75" customHeight="1">
       <c r="A325" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B325" s="92">
         <v>5</v>
@@ -61285,7 +61286,7 @@
     </row>
     <row r="346" spans="1:19" ht="12.75" customHeight="1">
       <c r="A346" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B346" s="92">
         <v>5</v>
@@ -61929,7 +61930,7 @@
     </row>
     <row r="367" spans="1:19" ht="12.75" customHeight="1">
       <c r="A367" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B367" s="92">
         <v>5</v>
@@ -62544,7 +62545,7 @@
     </row>
     <row r="387" spans="1:15" ht="15.75">
       <c r="A387" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B387" s="92">
         <v>5</v>
@@ -63167,7 +63168,7 @@
     </row>
     <row r="406" spans="1:15" ht="15.75">
       <c r="A406" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B406" s="92">
         <v>5</v>
@@ -63766,7 +63767,7 @@
     </row>
     <row r="425" spans="1:15" ht="15.75">
       <c r="A425" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B425" s="92">
         <v>5</v>
@@ -64349,7 +64350,7 @@
     </row>
     <row r="444" spans="1:15">
       <c r="A444" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B444" s="92">
         <v>5</v>
@@ -64873,7 +64874,7 @@
     </row>
     <row r="460" spans="1:15">
       <c r="A460" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B460" s="92">
         <v>6</v>
@@ -65406,7 +65407,7 @@
     </row>
     <row r="475" spans="1:15">
       <c r="A475" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B475" s="92">
         <v>6</v>
@@ -65922,7 +65923,7 @@
     </row>
     <row r="491" spans="1:13">
       <c r="A491" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B491" s="92">
         <v>5</v>
@@ -66392,7 +66393,7 @@
     </row>
     <row r="507" spans="1:13">
       <c r="A507" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B507" s="92">
         <v>5</v>
@@ -66872,7 +66873,7 @@
     </row>
     <row r="523" spans="1:12">
       <c r="A523" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B523" s="92">
         <v>5</v>
@@ -67364,7 +67365,7 @@
     </row>
     <row r="539" spans="1:12">
       <c r="A539" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B539" s="92">
         <v>6</v>
@@ -67840,7 +67841,7 @@
     </row>
     <row r="554" spans="1:12">
       <c r="A554" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B554" s="92">
         <v>6</v>
@@ -68332,7 +68333,7 @@
     </row>
     <row r="570" spans="1:13">
       <c r="A570" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B570" s="92">
         <v>7</v>
@@ -68829,7 +68830,7 @@
     </row>
     <row r="586" spans="1:13">
       <c r="A586" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B586" s="92">
         <v>8</v>
@@ -69321,7 +69322,7 @@
     </row>
     <row r="602" spans="1:12">
       <c r="A602" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B602" s="92">
         <v>8</v>
@@ -69803,7 +69804,7 @@
     </row>
     <row r="618" spans="1:11">
       <c r="A618" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B618" s="92">
         <v>8</v>
@@ -70270,7 +70271,7 @@
     </row>
     <row r="634" spans="1:10">
       <c r="A634" s="79" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B634" s="92">
         <v>8</v>
@@ -70389,7 +70390,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AY80"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -70494,7 +70495,7 @@
     </row>
     <row r="3" spans="1:45" s="193" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="193" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B3" s="250"/>
       <c r="C3" s="250"/>
@@ -70563,13 +70564,13 @@
         <v>199</v>
       </c>
       <c r="B5" s="196" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C5" s="196" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D5" s="196" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E5" s="196">
         <v>43907</v>
@@ -71752,7 +71753,7 @@
     </row>
     <row r="14" spans="1:45">
       <c r="A14" s="199" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B14" s="200">
         <f t="shared" si="0"/>
@@ -73641,7 +73642,7 @@
     </row>
     <row r="29" spans="1:51">
       <c r="A29" s="199" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B29" s="200">
         <f t="shared" si="4"/>
@@ -75493,7 +75494,7 @@
     </row>
     <row r="44" spans="1:51">
       <c r="A44" s="199" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B44" s="200">
         <f t="shared" si="7"/>
@@ -77119,7 +77120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L455"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -77142,7 +77143,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="290" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="B1" s="290"/>
       <c r="C1" s="290"/>
@@ -77159,7 +77160,7 @@
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="290" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B2" s="290"/>
       <c r="C2" s="290"/>
@@ -77176,45 +77177,45 @@
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="290" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B3" s="290" t="s">
         <v>200</v>
       </c>
       <c r="C3" s="290" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D3" s="290" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E3" s="290" t="s">
         <v>137</v>
       </c>
       <c r="F3" s="290" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H3" s="236">
         <v>44046</v>
       </c>
       <c r="I3" s="255" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="239" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C4" s="239" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="D4" s="239" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="E4" s="239" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F4" s="239" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="H4" s="236">
         <v>44046</v>
@@ -77225,284 +77226,284 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="239" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C5" s="239" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="D5" s="239" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="E5" s="239" t="s">
         <v>209</v>
       </c>
       <c r="F5" s="239" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H5" s="236">
         <v>44047</v>
       </c>
       <c r="I5" s="255" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="239" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C6" s="239" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="D6" s="239" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="E6" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F6" s="239" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H6" s="236">
         <v>44047</v>
       </c>
       <c r="I6" s="255" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="239" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C7" s="239" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="D7" s="239" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
       <c r="E7" s="239" t="s">
         <v>209</v>
       </c>
       <c r="F7" s="239" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H7" s="236">
         <v>44048</v>
       </c>
       <c r="I7" s="255" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="239" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C8" s="239" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="D8" s="239" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="E8" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F8" s="239" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="H8" s="236">
         <v>44048</v>
       </c>
       <c r="I8" s="255" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="239" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C9" s="239" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="D9" s="239" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="E9" s="239" t="s">
         <v>154</v>
       </c>
       <c r="F9" s="239" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="H9" s="236">
         <v>44048</v>
       </c>
       <c r="I9" s="255" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="239" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C10" s="239" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="D10" s="239" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="E10" s="239" t="s">
         <v>157</v>
       </c>
       <c r="F10" s="239" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G10" s="241"/>
       <c r="H10" s="236">
         <v>44048</v>
       </c>
       <c r="I10" s="255" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C11" s="239" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D11" s="239" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="E11" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F11" s="239" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="G11" s="241"/>
       <c r="H11" s="236">
         <v>44050</v>
       </c>
       <c r="I11" s="255" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C12" s="239" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="D12" s="239" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="E12" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F12" s="239" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G12" s="241"/>
       <c r="H12" s="236">
         <v>44050</v>
       </c>
       <c r="I12" s="255" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C13" s="239" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D13" s="239" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
       <c r="E13" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="239" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="H13" s="236">
         <v>44053</v>
       </c>
       <c r="I13" s="255" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="239" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B14" s="239" t="s">
         <v>200</v>
       </c>
       <c r="C14" s="239" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="D14" s="239" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="E14" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F14" s="239" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="H14" s="236">
         <v>44054</v>
       </c>
       <c r="I14" s="255" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C15" s="239" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="D15" s="239" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="E15" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F15" s="239" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="H15" s="236">
         <v>44055</v>
       </c>
       <c r="I15" s="255" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C16" s="239" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="D16" s="239" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="E16" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F16" s="239" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H16" s="236">
         <v>44056</v>
       </c>
       <c r="I16" s="255" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -77510,7 +77511,7 @@
         <v>44057</v>
       </c>
       <c r="I17" s="255" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -77518,7 +77519,7 @@
         <v>44057</v>
       </c>
       <c r="I18" s="255" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -77526,12 +77527,12 @@
         <v>44057</v>
       </c>
       <c r="I19" s="255" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15">
       <c r="A20" s="290" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
       <c r="B20" s="290"/>
       <c r="C20" s="290"/>
@@ -77542,12 +77543,12 @@
         <v>44057</v>
       </c>
       <c r="I20" s="255" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15">
       <c r="A21" s="290" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="B21" s="290"/>
       <c r="C21" s="290"/>
@@ -77558,442 +77559,442 @@
         <v>44057</v>
       </c>
       <c r="I21" s="255" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="290" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B22" s="290" t="s">
         <v>200</v>
       </c>
       <c r="C22" s="290" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D22" s="290" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E22" s="290" t="s">
         <v>137</v>
       </c>
       <c r="F22" s="290" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H22" s="236">
         <v>44029</v>
       </c>
       <c r="I22" s="255" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B23" s="239" t="s">
         <v>200</v>
       </c>
       <c r="C23" s="239" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D23" s="239" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="E23" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F23" s="239" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H23" s="236">
         <v>44060</v>
       </c>
       <c r="I23" s="255" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C24" s="239" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="D24" s="239" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E24" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F24" s="239" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="H24" s="236">
         <v>44061</v>
       </c>
       <c r="I24" s="255" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C25" s="239" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D25" s="239" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E25" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F25" s="239" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="H25" s="236">
         <v>44061</v>
       </c>
       <c r="I25" s="255" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B26" s="239" t="s">
         <v>200</v>
       </c>
       <c r="C26" s="239" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D26" s="239" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="E26" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F26" s="239" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="H26" s="236">
         <v>44062</v>
       </c>
       <c r="I26" s="255" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="239" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C27" s="239" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="D27" s="239" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="E27" s="239" t="s">
         <v>133</v>
       </c>
       <c r="F27" s="239" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="H27" s="236">
         <v>44063</v>
       </c>
       <c r="I27" s="255" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="J27" s="241"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="239" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C28" s="239" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D28" s="239" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
       <c r="E28" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F28" s="239" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="H28" s="236">
         <v>44064</v>
       </c>
       <c r="I28" s="255" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="J28" s="241"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="239" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C29" s="239" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D29" s="239" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="E29" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F29" s="239" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H29" s="236">
         <v>44064</v>
       </c>
       <c r="I29" s="255" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="J29" s="241"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="239" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C30" s="239" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D30" s="239" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
       <c r="E30" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F30" s="239" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="H30" s="236">
         <v>44036</v>
       </c>
       <c r="I30" s="255" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="J30" s="241"/>
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="239" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C31" s="239" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D31" s="239" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
       <c r="E31" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F31" s="239" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="H31" s="236">
         <v>44068</v>
       </c>
       <c r="I31" s="255" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J31" s="241"/>
     </row>
     <row r="32" spans="1:10" ht="15">
       <c r="A32" s="239" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C32" s="239" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="D32" s="239" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="E32" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F32" s="239" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="H32" s="236">
         <v>44068</v>
       </c>
       <c r="I32" s="255" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="J32" s="241"/>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="239" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C33" s="239" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="D33" s="239" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="E33" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F33" s="239" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="H33" s="236">
         <v>44068</v>
       </c>
       <c r="I33" s="255" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="239" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C34" s="239" t="s">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="D34" s="239" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="E34" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F34" s="239" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="H34" s="236">
         <v>44068</v>
       </c>
       <c r="I34" s="255" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="239" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C35" s="239" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D35" s="239" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
       <c r="E35" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F35" s="239" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H35" s="236">
         <v>44069</v>
       </c>
       <c r="I35" s="255" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15">
       <c r="A36" s="239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C36" s="239" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="D36" s="239" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="E36" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F36" s="239" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="H36" s="236">
         <v>44070</v>
       </c>
       <c r="I36" s="255" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="K36" s="241"/>
       <c r="L36" s="241"/>
     </row>
     <row r="37" spans="1:12" ht="15">
       <c r="A37" s="239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C37" s="239" t="s">
-        <v>661</v>
+        <v>652</v>
       </c>
       <c r="D37" s="239" t="s">
-        <v>662</v>
+        <v>653</v>
       </c>
       <c r="E37" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F37" s="239" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H37" s="236">
         <v>44070</v>
       </c>
       <c r="I37" s="255" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="K37" s="241"/>
       <c r="L37" s="241"/>
     </row>
     <row r="38" spans="1:12" ht="15">
       <c r="A38" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C38" s="239" t="s">
-        <v>663</v>
+        <v>654</v>
       </c>
       <c r="D38" s="239" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="E38" s="239" t="s">
         <v>154</v>
       </c>
       <c r="F38" s="239" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="H38" s="236">
         <v>44070</v>
       </c>
       <c r="I38" s="255" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="K38" s="241"/>
       <c r="L38" s="241"/>
     </row>
     <row r="39" spans="1:12" ht="15">
       <c r="A39" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C39" s="239" t="s">
-        <v>665</v>
+        <v>656</v>
       </c>
       <c r="D39" s="239" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="E39" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F39" s="239" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="H39" s="236">
         <v>44071</v>
       </c>
       <c r="I39" s="255" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="J39" s="241"/>
       <c r="K39" s="241"/>
@@ -78001,25 +78002,25 @@
     </row>
     <row r="40" spans="1:12" ht="15">
       <c r="A40" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C40" s="239" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="D40" s="239" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="E40" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F40" s="239" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="H40" s="236">
         <v>44071</v>
       </c>
       <c r="I40" s="255" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="J40" s="241"/>
       <c r="K40" s="241"/>
@@ -78027,52 +78028,52 @@
     </row>
     <row r="41" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A41" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B41" s="239"/>
       <c r="C41" s="239" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="D41" s="239" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="E41" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F41" s="239" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G41" s="240"/>
       <c r="H41" s="236">
         <v>44071</v>
       </c>
       <c r="I41" s="255" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A42" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B42" s="239"/>
       <c r="C42" s="239" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="D42" s="239" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="E42" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F42" s="239" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="G42" s="240"/>
       <c r="H42" s="236">
         <v>44071</v>
       </c>
       <c r="I42" s="255" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="J42" s="240"/>
       <c r="K42" s="240"/>
@@ -78080,47 +78081,47 @@
     </row>
     <row r="43" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A43" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B43" s="239"/>
       <c r="C43" s="239" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="D43" s="239" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="E43" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F43" s="239" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G43" s="240"/>
       <c r="H43" s="236">
         <v>44071</v>
       </c>
       <c r="I43" s="255" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="K43" s="240"/>
       <c r="L43" s="240"/>
     </row>
     <row r="44" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A44" s="239" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B44" s="239"/>
       <c r="C44" s="239" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="D44" s="239" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="E44" s="239" t="s">
         <v>153</v>
       </c>
       <c r="F44" s="239" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="G44" s="240"/>
       <c r="H44" s="236">
@@ -78144,7 +78145,7 @@
         <v>44075</v>
       </c>
       <c r="I45" s="255" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K45" s="240"/>
       <c r="L45" s="240"/>
@@ -78171,13 +78172,13 @@
         <v>44076</v>
       </c>
       <c r="I47" s="255" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="J47" s="241"/>
     </row>
     <row r="48" spans="1:12" ht="15">
       <c r="A48" s="290" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="B48" s="290"/>
       <c r="C48" s="290"/>
@@ -78188,13 +78189,13 @@
         <v>44076</v>
       </c>
       <c r="I48" s="255" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J48" s="241"/>
     </row>
     <row r="49" spans="1:12" ht="15">
       <c r="A49" s="290" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B49" s="290"/>
       <c r="C49" s="290"/>
@@ -78205,58 +78206,58 @@
         <v>44076</v>
       </c>
       <c r="I49" s="255" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="J49" s="241"/>
     </row>
     <row r="50" spans="1:12" ht="15">
       <c r="A50" s="290" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B50" s="290" t="s">
         <v>200</v>
       </c>
       <c r="C50" s="290" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D50" s="290" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E50" s="290" t="s">
         <v>137</v>
       </c>
       <c r="F50" s="290" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H50" s="236">
         <v>44077</v>
       </c>
       <c r="I50" s="255" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="J50" s="241"/>
     </row>
     <row r="51" spans="1:12" ht="15">
       <c r="A51" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C51" s="239" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="D51" s="239" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="E51" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F51" s="239" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="H51" s="236">
         <v>44077</v>
       </c>
       <c r="I51" s="255" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="J51" s="241"/>
       <c r="K51" s="241"/>
@@ -78264,25 +78265,25 @@
     </row>
     <row r="52" spans="1:12" ht="15">
       <c r="A52" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C52" s="239" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="D52" s="239" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="E52" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F52" s="239" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H52" s="236">
         <v>44077</v>
       </c>
       <c r="I52" s="255" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="J52" s="241"/>
       <c r="K52" s="241"/>
@@ -78290,25 +78291,25 @@
     </row>
     <row r="53" spans="1:12" ht="15">
       <c r="A53" s="239" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C53" s="239" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="D53" s="239" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="E53" s="239" t="s">
         <v>133</v>
       </c>
       <c r="F53" s="239" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="H53" s="236">
         <v>44077</v>
       </c>
       <c r="I53" s="255" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="J53" s="241"/>
       <c r="K53" s="241"/>
@@ -78316,48 +78317,48 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="239" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C54" s="239" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="D54" s="239" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="E54" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F54" s="239" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="H54" s="236">
         <v>44078</v>
       </c>
       <c r="I54" s="255" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15">
       <c r="A55" s="239" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C55" s="239" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="D55" s="239" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="E55" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F55" s="239" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
       <c r="H55" s="289" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I55" s="255" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J55" s="241"/>
       <c r="K55" s="241"/>
@@ -78365,70 +78366,70 @@
     </row>
     <row r="56" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A56" s="239" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B56" s="239"/>
       <c r="C56" s="239" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="D56" s="239" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="E56" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F56" s="239" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G56" s="240"/>
       <c r="H56" s="289" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="I56" s="255" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A57" s="239" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B57" s="239"/>
       <c r="C57" s="239" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="D57" s="239" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="E57" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F57" s="239" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="G57" s="240"/>
       <c r="H57" s="289" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="I57" s="255" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A58" s="239" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B58" s="239"/>
       <c r="C58" s="239" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="D58" s="239" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="E58" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F58" s="239" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="G58" s="240"/>
       <c r="H58" s="289"/>
@@ -78437,19 +78438,19 @@
     </row>
     <row r="59" spans="1:12" ht="15">
       <c r="A59" s="239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C59" s="239" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="D59" s="239" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="E59" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F59" s="239" t="s">
-        <v>660</v>
+        <v>651</v>
       </c>
       <c r="H59" s="289"/>
       <c r="I59" s="255"/>
@@ -78458,20 +78459,20 @@
     </row>
     <row r="60" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A60" s="239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B60" s="239"/>
       <c r="C60" s="239" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="D60" s="239" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="E60" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F60" s="239" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G60" s="240"/>
       <c r="H60" s="289"/>
@@ -78480,20 +78481,20 @@
     </row>
     <row r="61" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A61" s="239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B61" s="239"/>
       <c r="C61" s="239" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="D61" s="239" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="E61" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F61" s="239" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="G61" s="240"/>
       <c r="H61" s="289"/>
@@ -78502,20 +78503,20 @@
     </row>
     <row r="62" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A62" s="239" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B62" s="239"/>
       <c r="C62" s="239" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="D62" s="239" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="E62" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F62" s="239" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="G62" s="240"/>
       <c r="H62" s="289"/>
@@ -78524,20 +78525,20 @@
     </row>
     <row r="63" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A63" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B63" s="239"/>
       <c r="C63" s="239" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="D63" s="239" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="E63" s="239" t="s">
         <v>133</v>
       </c>
       <c r="F63" s="239" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G63" s="240"/>
       <c r="H63" s="289"/>
@@ -78548,20 +78549,20 @@
     </row>
     <row r="64" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A64" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B64" s="239"/>
       <c r="C64" s="239" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="D64" s="239" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="E64" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F64" s="239" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="G64" s="240"/>
       <c r="H64" s="289"/>
@@ -78570,20 +78571,20 @@
     </row>
     <row r="65" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A65" s="239" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B65" s="239"/>
       <c r="C65" s="239" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="D65" s="239" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="E65" s="239" t="s">
         <v>132</v>
       </c>
       <c r="F65" s="239" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G65" s="240"/>
       <c r="H65" s="240"/>
@@ -78619,7 +78620,7 @@
     </row>
     <row r="69" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A69" s="290" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="B69" s="290"/>
       <c r="C69" s="290"/>
@@ -78634,7 +78635,7 @@
     </row>
     <row r="70" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A70" s="290" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="B70" s="290"/>
       <c r="C70" s="290"/>
@@ -78650,22 +78651,22 @@
     </row>
     <row r="71" spans="1:12" s="241" customFormat="1" ht="15">
       <c r="A71" s="290" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B71" s="290" t="s">
         <v>200</v>
       </c>
       <c r="C71" s="290" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D71" s="290" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="E71" s="290" t="s">
         <v>137</v>
       </c>
       <c r="F71" s="290" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="G71" s="240"/>
       <c r="H71" s="240"/>
@@ -78676,55 +78677,55 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="239" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C72" s="239" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="D72" s="239" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="E72" s="239" t="s">
         <v>131</v>
       </c>
       <c r="F72" s="239" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="15">
       <c r="A73" s="239" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C73" s="239" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="D73" s="239" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E73" s="239" t="s">
         <v>153</v>
       </c>
       <c r="F73" s="239" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="G73" s="241"/>
       <c r="J73" s="241"/>
     </row>
     <row r="74" spans="1:12" ht="15">
       <c r="A74" s="239" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C74" s="239" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="D74" s="239" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="E74" s="239" t="s">
         <v>151</v>
       </c>
       <c r="F74" s="239" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G74" s="241"/>
       <c r="J74" s="241"/>
